--- a/test/testdata/testDepositChsb_fiat_chf_pandas_avg_rate_explore.xlsx
+++ b/test/testdata/testDepositChsb_fiat_chf_pandas_avg_rate_explore.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="49">
   <si>
     <t>User ID</t>
   </si>
@@ -41,13 +41,7 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
     <t>End Date</t>
-  </si>
-  <si>
-    <t>2021-04-08</t>
   </si>
   <si>
     <t>Local Currency</t>
@@ -98,12 +92,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>2020-12-18 13:34:34</t>
-  </si>
-  <si>
-    <t>2020-12-18 12:34:34</t>
-  </si>
-  <si>
     <t>Deposit</t>
   </si>
   <si>
@@ -111,12 +99,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>2020-12-20 13:14:10</t>
-  </si>
-  <si>
-    <t>2020-12-20 12:14:10</t>
   </si>
   <si>
     <t>Sell</t>
@@ -134,25 +116,7 @@
     <t>Exchanged from 0.68641045 BTC</t>
   </si>
   <si>
-    <t>2020-12-20 17:35:41</t>
-  </si>
-  <si>
-    <t>2020-12-20 16:35:41</t>
-  </si>
-  <si>
     <t>ETH</t>
-  </si>
-  <si>
-    <t>2020-12-20 17:42:30</t>
-  </si>
-  <si>
-    <t>2020-12-20 16:42:30</t>
-  </si>
-  <si>
-    <t>2020-12-20 17:44:42</t>
-  </si>
-  <si>
-    <t>2020-12-20 16:44:42</t>
   </si>
   <si>
     <t>Exchanged to 2233.36 USDC. The fees for the exchange was taken in the bought currency</t>
@@ -161,64 +125,16 @@
     <t>Exchanged from 0.09386968 BTC</t>
   </si>
   <si>
-    <t>2020-12-20 18:29:46</t>
-  </si>
-  <si>
-    <t>2020-12-20 17:29:46</t>
-  </si>
-  <si>
-    <t>2020-12-20 19:51:52</t>
-  </si>
-  <si>
-    <t>2020-12-20 18:51:52</t>
-  </si>
-  <si>
-    <t>2020-12-20 19:57:54</t>
-  </si>
-  <si>
-    <t>2020-12-20 18:57:54</t>
-  </si>
-  <si>
     <t>Exchanged to 1215.44 USDC. The fees for the exchange was taken in the bought currency</t>
   </si>
   <si>
     <t>Exchanged from 0.05097717 BTC</t>
   </si>
   <si>
-    <t>2020-12-22 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-22 08:00:00</t>
-  </si>
-  <si>
     <t>Earnings</t>
   </si>
   <si>
     <t>Yield earnings</t>
-  </si>
-  <si>
-    <t>2020-12-23 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-23 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-23 18:29:04</t>
-  </si>
-  <si>
-    <t>2020-12-23 17:29:04</t>
-  </si>
-  <si>
-    <t>2020-12-23 21:37:02</t>
-  </si>
-  <si>
-    <t>2020-12-23 20:37:02</t>
-  </si>
-  <si>
-    <t>2020-12-23 21:48:19</t>
-  </si>
-  <si>
-    <t>2020-12-23 20:48:19</t>
   </si>
   <si>
     <t>CHSB</t>
@@ -230,28 +146,10 @@
     <t>Exchanged from 0.01570716 BTC</t>
   </si>
   <si>
-    <t>2020-12-23 21:54:16</t>
-  </si>
-  <si>
-    <t>2020-12-23 20:54:16</t>
-  </si>
-  <si>
     <t>Exchanged to 3798.914 CHSB. The fees for the exchange was taken in the bought currency</t>
   </si>
   <si>
     <t>Exchanged from 1.7971797 ETH</t>
-  </si>
-  <si>
-    <t>2020-12-23 22:55:36</t>
-  </si>
-  <si>
-    <t>2020-12-23 21:55:36</t>
-  </si>
-  <si>
-    <t>2020-12-23 23:17:11</t>
-  </si>
-  <si>
-    <t>2020-12-23 22:17:11</t>
   </si>
   <si>
     <t>Exchanged to 2449.322 CHSB. The fees for the exchange was taken in the bought currency</t>
@@ -260,46 +158,10 @@
     <t>Exchanged from 0.0288241 BTC</t>
   </si>
   <si>
-    <t>2020-12-24 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-24 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-24 21:30:29</t>
-  </si>
-  <si>
-    <t>2020-12-24 20:30:29</t>
-  </si>
-  <si>
-    <t>2020-12-24 21:34:05</t>
-  </si>
-  <si>
-    <t>2020-12-24 20:34:05</t>
-  </si>
-  <si>
-    <t>2020-12-24 21:41:40</t>
-  </si>
-  <si>
-    <t>2020-12-24 20:41:40</t>
-  </si>
-  <si>
     <t>Exchanged to 284.559 CHSB. The fees for the exchange was taken in the bought currency</t>
   </si>
   <si>
     <t>Exchanged from 0.1387311 ETH</t>
-  </si>
-  <si>
-    <t>2020-12-24 21:54:12</t>
-  </si>
-  <si>
-    <t>2020-12-24 20:54:12</t>
-  </si>
-  <si>
-    <t>2020-12-24 21:56:30</t>
-  </si>
-  <si>
-    <t>2020-12-24 20:56:30</t>
   </si>
   <si>
     <t>Exchanged to 12344.548 CHSB. The fees for the exchange was taken in the bought currency</t>
@@ -308,79 +170,13 @@
     <t>Exchanged from 6.002 ETH</t>
   </si>
   <si>
-    <t>2020-12-25 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-25 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-26 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-26 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-26 20:17:56</t>
-  </si>
-  <si>
-    <t>2020-12-26 19:17:56</t>
-  </si>
-  <si>
-    <t>2020-12-26 20:23:11</t>
-  </si>
-  <si>
-    <t>2020-12-26 19:23:11</t>
-  </si>
-  <si>
     <t>Exchanged to 491.692 CHSB. The fees for the exchange was taken in the bought currency</t>
   </si>
   <si>
     <t>Exchanged from 0.2465338 ETH</t>
   </si>
   <si>
-    <t>2020-12-27 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-27 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-28 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-28 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-29 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-29 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-30 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-30 08:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-30 20:22:17</t>
-  </si>
-  <si>
-    <t>2020-12-30 19:22:17</t>
-  </si>
-  <si>
     <t>Withdrawal</t>
-  </si>
-  <si>
-    <t>2020-12-30 20:30:47</t>
-  </si>
-  <si>
-    <t>2020-12-30 19:30:47</t>
-  </si>
-  <si>
-    <t>2020-12-31 09:00:00</t>
-  </si>
-  <si>
-    <t>2020-12-31 08:00:00</t>
   </si>
 </sst>
 </file>
@@ -505,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -536,6 +332,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -857,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52:I416"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -880,37 +682,37 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="13">
+        <v>43817</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43929</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -925,51 +727,51 @@
     </row>
     <row r="9" spans="1:11" ht="26.15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="12">
+        <v>43817.565671296295</v>
+      </c>
+      <c r="B10" s="12">
+        <v>43817.524004629631</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="8">
         <v>0.62140759999999995</v>
@@ -990,21 +792,21 @@
         <v>14285.058187563835</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
+      <c r="A11" s="12">
+        <v>43819.551504629628</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43819.509837962964</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8">
         <v>0.68641045000000001</v>
@@ -1025,21 +827,21 @@
         <v>16079.748041789862</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
+      <c r="A12" s="12">
+        <v>43819.551504629628</v>
+      </c>
+      <c r="B12" s="12">
+        <v>43819.509837962964</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
         <v>16122.8887</v>
@@ -1060,21 +862,21 @@
         <v>16079.748041789862</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
+      <c r="A13" s="12">
+        <v>43819.733113425929</v>
+      </c>
+      <c r="B13" s="12">
+        <v>43819.691446759258</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6">
         <v>0.41420797999999998</v>
@@ -1095,21 +897,21 @@
         <v>269.0252982607559</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
+      <c r="A14" s="12">
+        <v>43819.737847222219</v>
+      </c>
+      <c r="B14" s="12">
+        <v>43819.696180555555</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" s="8">
         <v>9.3869679999999997E-2</v>
@@ -1130,21 +932,21 @@
         <v>2225.4260074848958</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
+      <c r="A15" s="12">
+        <v>43819.739374999997</v>
+      </c>
+      <c r="B15" s="12">
+        <v>43819.697708333333</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" s="8">
         <v>9.3869679999999997E-2</v>
@@ -1165,21 +967,21 @@
         <v>2224.8216632475742</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
+      <c r="A16" s="12">
+        <v>43819.739374999997</v>
+      </c>
+      <c r="B16" s="12">
+        <v>43819.697708333333</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5">
         <v>2233.3677117978</v>
@@ -1200,21 +1002,21 @@
         <v>2224.8216632475742</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
+      <c r="A17" s="12">
+        <v>43819.770671296297</v>
+      </c>
+      <c r="B17" s="12">
+        <v>43819.729004629633</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E17" s="6">
         <v>0.10212599999999999</v>
@@ -1235,21 +1037,21 @@
         <v>66.134690476113661</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
+      <c r="A18" s="12">
+        <v>43819.827685185184</v>
+      </c>
+      <c r="B18" s="12">
+        <v>43819.78601851852</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8">
         <v>5.0977170000000002E-2</v>
@@ -1270,21 +1072,21 @@
         <v>1214.6749253953467</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
+      <c r="A19" s="12">
+        <v>43819.831875000003</v>
+      </c>
+      <c r="B19" s="12">
+        <v>43819.790208333332</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19" s="8">
         <v>5.0977170000000002E-2</v>
@@ -1305,21 +1107,21 @@
         <v>1211.6600902360433</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>48</v>
+      <c r="A20" s="12">
+        <v>43819.831875000003</v>
+      </c>
+      <c r="B20" s="12">
+        <v>43819.790208333332</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5">
         <v>1215.440864899216</v>
@@ -1340,21 +1142,21 @@
         <v>1211.6600902360433</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>52</v>
+      <c r="A21" s="12">
+        <v>43821.375</v>
+      </c>
+      <c r="B21" s="12">
+        <v>43821.333333333336</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5">
         <v>9.3793520000000008</v>
@@ -1375,21 +1177,21 @@
         <v>9.3855199556687197</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>56</v>
+      <c r="A22" s="12">
+        <v>43822.375</v>
+      </c>
+      <c r="B22" s="12">
+        <v>43822.333333333336</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5">
         <v>8.9040649999999992</v>
@@ -1410,21 +1212,21 @@
         <v>8.9028435403632997</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>58</v>
+      <c r="A23" s="12">
+        <v>43822.770185185182</v>
+      </c>
+      <c r="B23" s="12">
+        <v>43822.728518518517</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E23" s="6">
         <v>1.3312022998777736E-2</v>
@@ -1445,21 +1247,21 @@
         <v>8.0413601032404447</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>60</v>
+      <c r="A24" s="12">
+        <v>43822.900717592594</v>
+      </c>
+      <c r="B24" s="12">
+        <v>43822.859050925923</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E24" s="8">
         <v>1.5707160000000001E-2</v>
@@ -1480,21 +1282,21 @@
         <v>369.64800956880157</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
+      <c r="A25" s="12">
+        <v>43822.908553240741</v>
+      </c>
+      <c r="B25" s="12">
+        <v>43822.866886574076</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E25" s="8">
         <v>1.5707160000000001E-2</v>
@@ -1515,21 +1317,21 @@
         <v>366.37509879935999</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
+      <c r="A26" s="12">
+        <v>43822.908553240741</v>
+      </c>
+      <c r="B26" s="12">
+        <v>43822.866886574076</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E26" s="7">
         <v>1283.9739999999999</v>
@@ -1550,21 +1352,21 @@
         <v>366.37509879935999</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>67</v>
+      <c r="A27" s="12">
+        <v>43822.912685185183</v>
+      </c>
+      <c r="B27" s="12">
+        <v>43822.871018518519</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E27" s="6">
         <v>1.7971797</v>
@@ -1585,21 +1387,21 @@
         <v>1088.3388953916999</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>67</v>
+      <c r="A28" s="12">
+        <v>43822.912685185183</v>
+      </c>
+      <c r="B28" s="12">
+        <v>43822.871018518519</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E28" s="7">
         <v>3818.0050000000001</v>
@@ -1620,21 +1422,21 @@
         <v>1082.8972009147415</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>71</v>
+      <c r="A29" s="12">
+        <v>43822.955277777779</v>
+      </c>
+      <c r="B29" s="12">
+        <v>43822.913611111115</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E29" s="8">
         <v>2.8824099999999998E-2</v>
@@ -1655,21 +1457,21 @@
         <v>672.1705631192749</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>73</v>
+      <c r="A30" s="12">
+        <v>43822.970266203702</v>
+      </c>
+      <c r="B30" s="12">
+        <v>43822.928599537037</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E30" s="8">
         <v>2.8824099999999998E-2</v>
@@ -1690,21 +1492,21 @@
         <v>656.63988616133997</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>73</v>
+      <c r="A31" s="12">
+        <v>43822.970266203702</v>
+      </c>
+      <c r="B31" s="12">
+        <v>43822.928599537037</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E31" s="7">
         <v>2449.3220000000001</v>
@@ -1725,21 +1527,21 @@
         <v>656.63988616133997</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>77</v>
+      <c r="A32" s="12">
+        <v>43823.375</v>
+      </c>
+      <c r="B32" s="12">
+        <v>43823.333333333336</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5">
         <v>9.3475249999999992</v>
@@ -1760,21 +1562,21 @@
         <v>9.3701874200357498</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>79</v>
+      <c r="A33" s="12">
+        <v>43823.896168981482</v>
+      </c>
+      <c r="B33" s="12">
+        <v>43823.854502314818</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E33" s="6">
         <v>0.12636255937890351</v>
@@ -1795,21 +1597,21 @@
         <v>75.394746947858778</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>81</v>
+      <c r="A34" s="12">
+        <v>43823.898668981485</v>
+      </c>
+      <c r="B34" s="12">
+        <v>43823.857002314813</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E34" s="6">
         <v>1.2368489999997E-2</v>
@@ -1830,21 +1632,21 @@
         <v>7.3880179522547058</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>83</v>
+      <c r="A35" s="12">
+        <v>43823.903935185182</v>
+      </c>
+      <c r="B35" s="12">
+        <v>43823.862268518518</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E35" s="6">
         <v>0.1387311</v>
@@ -1865,21 +1667,21 @@
         <v>82.828872031619994</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>83</v>
+      <c r="A36" s="12">
+        <v>43823.903935185182</v>
+      </c>
+      <c r="B36" s="12">
+        <v>43823.862268518518</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E36" s="7">
         <v>285.98899999999998</v>
@@ -1900,21 +1702,21 @@
         <v>82.414727671461904</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>87</v>
+      <c r="A37" s="12">
+        <v>43823.912638888891</v>
+      </c>
+      <c r="B37" s="12">
+        <v>43823.870972222219</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E37" s="6">
         <v>6.0019999999999998</v>
@@ -1935,21 +1737,21 @@
         <v>3598.9702946325401</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>89</v>
+      <c r="A38" s="12">
+        <v>43823.914236111108</v>
+      </c>
+      <c r="B38" s="12">
+        <v>43823.872569444444</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E38" s="6">
         <v>6.0019999999999998</v>
@@ -1970,21 +1772,21 @@
         <v>3612.4230731777102</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>89</v>
+      <c r="A39" s="12">
+        <v>43823.914236111108</v>
+      </c>
+      <c r="B39" s="12">
+        <v>43823.872569444444</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E39" s="7">
         <v>12406.581</v>
@@ -2005,21 +1807,21 @@
         <v>3594.3609578118217</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>93</v>
+      <c r="A40" s="12">
+        <v>43824.375</v>
+      </c>
+      <c r="B40" s="12">
+        <v>43824.333333333336</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5">
         <v>9.3925929999999997</v>
@@ -2040,21 +1842,21 @@
         <v>9.4118555175762602</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>95</v>
+      <c r="A41" s="12">
+        <v>43825.375</v>
+      </c>
+      <c r="B41" s="12">
+        <v>43825.333333333336</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5">
         <v>8.5924069999999997</v>
@@ -2075,21 +1877,21 @@
         <v>8.5803597579934401</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>97</v>
+      <c r="A42" s="12">
+        <v>43825.84578703704</v>
+      </c>
+      <c r="B42" s="12">
+        <v>43825.804120370369</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E42" s="6">
         <v>0.246533841787</v>
@@ -2110,21 +1912,21 @@
         <v>158.05914650191198</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>99</v>
+      <c r="A43" s="12">
+        <v>43825.849432870367</v>
+      </c>
+      <c r="B43" s="12">
+        <v>43825.807766203703</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E43" s="6">
         <v>0.2465338</v>
@@ -2145,21 +1947,21 @@
         <v>157.86375042492</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>99</v>
+      <c r="A44" s="12">
+        <v>43825.849432870367</v>
+      </c>
+      <c r="B44" s="12">
+        <v>43825.807766203703</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E44" s="7">
         <v>494.16300000000001</v>
@@ -2180,21 +1982,21 @@
         <v>157.07443167279541</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>103</v>
+      <c r="A45" s="12">
+        <v>43826.375</v>
+      </c>
+      <c r="B45" s="12">
+        <v>43826.333333333336</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
         <v>8.2928840000000008</v>
@@ -2215,21 +2017,21 @@
         <v>8.2643126926124797</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>105</v>
+      <c r="A46" s="12">
+        <v>43827.375</v>
+      </c>
+      <c r="B46" s="12">
+        <v>43827.333333333336</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E46" s="5">
         <v>8.3102180000000008</v>
@@ -2250,21 +2052,21 @@
         <v>8.3022777529053595</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>107</v>
+      <c r="A47" s="12">
+        <v>43828.375</v>
+      </c>
+      <c r="B47" s="12">
+        <v>43828.333333333336</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E47" s="5">
         <v>8.3137369999999997</v>
@@ -2285,21 +2087,21 @@
         <v>8.32533591017555</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>109</v>
+      <c r="A48" s="12">
+        <v>43829.375</v>
+      </c>
+      <c r="B48" s="12">
+        <v>43829.333333333336</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E48" s="5">
         <v>8.4554670000000005</v>
@@ -2320,21 +2122,21 @@
         <v>8.4628827827776796</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>111</v>
+      <c r="A49" s="12">
+        <v>43829.848807870374</v>
+      </c>
+      <c r="B49" s="12">
+        <v>43829.807141203702</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E49" s="7">
         <v>290</v>
@@ -2355,21 +2157,21 @@
         <v>70.570122499999997</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>114</v>
+      <c r="A50" s="12">
+        <v>43829.854710648149</v>
+      </c>
+      <c r="B50" s="12">
+        <v>43829.813043981485</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E50" s="8">
         <v>3.414E-4</v>
@@ -2390,21 +2192,21 @@
         <v>9.8319127369651973</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>116</v>
+      <c r="A51" s="12">
+        <v>43830.375</v>
+      </c>
+      <c r="B51" s="12">
+        <v>43830.333333333336</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E51" s="5">
         <v>8.4038419999999991</v>
@@ -2425,19 +2227,19 @@
         <v>8.4003333119265804</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
-        <v>44197</v>
+        <v>43831</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2451,14 +2253,14 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -2472,14 +2274,14 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
-        <v>44199</v>
+        <v>43833</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2493,14 +2295,14 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
-        <v>44200</v>
+        <v>43834</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -2514,14 +2316,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
-        <v>44201</v>
+        <v>43835</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -2535,14 +2337,14 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
-        <v>44202</v>
+        <v>43836</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2556,14 +2358,14 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
-        <v>44203</v>
+        <v>43837</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2577,14 +2379,14 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
-        <v>44204</v>
+        <v>43838</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -2598,14 +2400,14 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
-        <v>44205</v>
+        <v>43839</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2619,14 +2421,14 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
-        <v>44206</v>
+        <v>43840</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -2640,14 +2442,14 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
-        <v>44207</v>
+        <v>43841</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -2661,14 +2463,14 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
-        <v>44208</v>
+        <v>43842</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -2682,14 +2484,14 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
-        <v>44209</v>
+        <v>43843</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -2703,14 +2505,14 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="9">
-        <v>44210</v>
+        <v>43844</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -2724,14 +2526,14 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="9">
-        <v>44211</v>
+        <v>43845</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2745,14 +2547,14 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="9">
-        <v>44212</v>
+        <v>43846</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2766,14 +2568,14 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="9">
-        <v>44213</v>
+        <v>43847</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -2787,14 +2589,14 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="9">
-        <v>44214</v>
+        <v>43848</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -2808,14 +2610,14 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="9">
-        <v>44215</v>
+        <v>43849</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2829,14 +2631,14 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="9">
-        <v>44216</v>
+        <v>43850</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -2850,14 +2652,14 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="9">
-        <v>44217</v>
+        <v>43851</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -2871,14 +2673,14 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="9">
-        <v>44218</v>
+        <v>43852</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2892,14 +2694,14 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="9">
-        <v>44219</v>
+        <v>43853</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -2913,14 +2715,14 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="9">
-        <v>44220</v>
+        <v>43854</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -2934,14 +2736,14 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="9">
-        <v>44221</v>
+        <v>43855</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -2955,14 +2757,14 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="9">
-        <v>44222</v>
+        <v>43856</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -2976,14 +2778,14 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="9">
-        <v>44223</v>
+        <v>43857</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -2997,14 +2799,14 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="9">
-        <v>44224</v>
+        <v>43858</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -3018,14 +2820,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="9">
-        <v>44225</v>
+        <v>43859</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -3039,14 +2841,14 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="9">
-        <v>44226</v>
+        <v>43860</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="5"/>
@@ -3060,14 +2862,14 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="9">
-        <v>44227</v>
+        <v>43861</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -3081,14 +2883,14 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="9">
-        <v>44228</v>
+        <v>43862</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="5"/>
@@ -3102,14 +2904,14 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="9">
-        <v>44229</v>
+        <v>43863</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -3123,14 +2925,14 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="9">
-        <v>44230</v>
+        <v>43864</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="5"/>
@@ -3144,14 +2946,14 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="9">
-        <v>44231</v>
+        <v>43865</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -3165,14 +2967,14 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="9">
-        <v>44232</v>
+        <v>43866</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -3186,14 +2988,14 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="9">
-        <v>44233</v>
+        <v>43867</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="5"/>
@@ -3207,14 +3009,14 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="9">
-        <v>44234</v>
+        <v>43868</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="5"/>
@@ -3228,14 +3030,14 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="9">
-        <v>44235</v>
+        <v>43869</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -3249,14 +3051,14 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="9">
-        <v>44236</v>
+        <v>43870</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -3270,14 +3072,14 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="9">
-        <v>44237</v>
+        <v>43871</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -3291,14 +3093,14 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="9">
-        <v>44238</v>
+        <v>43872</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="5"/>
@@ -3312,14 +3114,14 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="9">
-        <v>44239</v>
+        <v>43873</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E94" s="7"/>
       <c r="F94" s="5"/>
@@ -3333,14 +3135,14 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="9">
-        <v>44240</v>
+        <v>43874</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -3354,14 +3156,14 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="9">
-        <v>44241</v>
+        <v>43875</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E96" s="7"/>
       <c r="F96" s="5"/>
@@ -3375,14 +3177,14 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="9">
-        <v>44242</v>
+        <v>43876</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -3396,14 +3198,14 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="9">
-        <v>44243</v>
+        <v>43877</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="5"/>
@@ -3417,14 +3219,14 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="9">
-        <v>44244</v>
+        <v>43878</v>
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -3438,14 +3240,14 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="9">
-        <v>44245</v>
+        <v>43879</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -3459,14 +3261,14 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="9">
-        <v>44246</v>
+        <v>43880</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="5"/>
@@ -3480,14 +3282,14 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="9">
-        <v>44247</v>
+        <v>43881</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -3501,14 +3303,14 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="9">
-        <v>44248</v>
+        <v>43882</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="5"/>
@@ -3522,14 +3324,14 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="9">
-        <v>44249</v>
+        <v>43883</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -3543,14 +3345,14 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="9">
-        <v>44250</v>
+        <v>43884</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -3564,14 +3366,14 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="9">
-        <v>44251</v>
+        <v>43885</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="5"/>
@@ -3585,14 +3387,14 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="9">
-        <v>44252</v>
+        <v>43886</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -3606,14 +3408,14 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="9">
-        <v>44253</v>
+        <v>43887</v>
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E108" s="7"/>
       <c r="F108" s="5"/>
@@ -3627,14 +3429,14 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="9">
-        <v>44254</v>
+        <v>43888</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -3648,14 +3450,14 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="9">
-        <v>44255</v>
+        <v>43889</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="5"/>
@@ -3669,14 +3471,14 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="9">
-        <v>44256</v>
+        <v>43891</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -3690,14 +3492,14 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="9">
-        <v>44257</v>
+        <v>43892</v>
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="5"/>
@@ -3711,14 +3513,14 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="9">
-        <v>44258</v>
+        <v>43893</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -3732,14 +3534,14 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="9">
-        <v>44259</v>
+        <v>43894</v>
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="5"/>
@@ -3753,14 +3555,14 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="9">
-        <v>44260</v>
+        <v>43895</v>
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -3774,14 +3576,14 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="9">
-        <v>44261</v>
+        <v>43896</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="5"/>
@@ -3795,14 +3597,14 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="9">
-        <v>44262</v>
+        <v>43897</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="5"/>
@@ -3816,14 +3618,14 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="9">
-        <v>44263</v>
+        <v>43898</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -3837,14 +3639,14 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="9">
-        <v>44264</v>
+        <v>43899</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -3858,14 +3660,14 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="9">
-        <v>44265</v>
+        <v>43900</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="5"/>
@@ -3879,14 +3681,14 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="9">
-        <v>44266</v>
+        <v>43901</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="5"/>
@@ -3900,14 +3702,14 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="9">
-        <v>44267</v>
+        <v>43902</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -3921,14 +3723,14 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="9">
-        <v>44268</v>
+        <v>43903</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="5"/>
@@ -3942,14 +3744,14 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="9">
-        <v>44269</v>
+        <v>43904</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -3963,14 +3765,14 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="9">
-        <v>44270</v>
+        <v>43905</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="5"/>
@@ -3984,14 +3786,14 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="9">
-        <v>44271</v>
+        <v>43906</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -4005,14 +3807,14 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="9">
-        <v>44272</v>
+        <v>43907</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -4026,14 +3828,14 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="9">
-        <v>44273</v>
+        <v>43908</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E128" s="7"/>
       <c r="F128" s="5"/>
@@ -4047,14 +3849,14 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="9">
-        <v>44274</v>
+        <v>43909</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -4068,14 +3870,14 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="9">
-        <v>44275</v>
+        <v>43910</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -4089,14 +3891,14 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="9">
-        <v>44276</v>
+        <v>43911</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="5"/>
@@ -4110,14 +3912,14 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="9">
-        <v>44277</v>
+        <v>43912</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -4131,14 +3933,14 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="9">
-        <v>44278</v>
+        <v>43913</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E133" s="7"/>
       <c r="F133" s="5"/>
@@ -4152,14 +3954,14 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="9">
-        <v>44279</v>
+        <v>43914</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -4173,14 +3975,14 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="9">
-        <v>44280</v>
+        <v>43915</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -4194,14 +3996,14 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="9">
-        <v>44281</v>
+        <v>43916</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -4215,14 +4017,14 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="9">
-        <v>44282</v>
+        <v>43917</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="5"/>
@@ -4236,14 +4038,14 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="9">
-        <v>44283</v>
+        <v>43918</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -4257,14 +4059,14 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="9">
-        <v>44284</v>
+        <v>43919</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -4278,14 +4080,14 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="9">
-        <v>44285</v>
+        <v>43920</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="5"/>
@@ -4299,14 +4101,14 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="9">
-        <v>44286</v>
+        <v>43921</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -4320,14 +4122,14 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="9">
-        <v>44287</v>
+        <v>43922</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="5"/>
@@ -4341,14 +4143,14 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="9">
-        <v>44288</v>
+        <v>43923</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
@@ -4362,14 +4164,14 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="9">
-        <v>44289</v>
+        <v>43924</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="5"/>
@@ -4383,14 +4185,14 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="9">
-        <v>44290</v>
+        <v>43925</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="5"/>
@@ -4404,14 +4206,14 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="9">
-        <v>44291</v>
+        <v>43926</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -4425,14 +4227,14 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="9">
-        <v>44292</v>
+        <v>43927</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E147" s="7"/>
       <c r="F147" s="5"/>
@@ -4446,14 +4248,14 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="9">
-        <v>44293</v>
+        <v>43928</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
@@ -4467,14 +4269,14 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="9">
-        <v>44294</v>
+        <v>43929</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -4488,14 +4290,14 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="9">
-        <v>44295</v>
+        <v>43930</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="5"/>
@@ -4509,14 +4311,14 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="9">
-        <v>44296</v>
+        <v>43931</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
@@ -4530,14 +4332,14 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="9">
-        <v>44297</v>
+        <v>43932</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="5"/>
@@ -4551,14 +4353,14 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="9">
-        <v>44298</v>
+        <v>43933</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -4572,14 +4374,14 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="9">
-        <v>44299</v>
+        <v>43934</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="5"/>
@@ -4593,14 +4395,14 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="9">
-        <v>44300</v>
+        <v>43935</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="5"/>
@@ -4614,14 +4416,14 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="9">
-        <v>44301</v>
+        <v>43936</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
@@ -4635,14 +4437,14 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="9">
-        <v>44302</v>
+        <v>43937</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="5"/>
@@ -4656,14 +4458,14 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="9">
-        <v>44303</v>
+        <v>43938</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
@@ -4677,14 +4479,14 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="9">
-        <v>44304</v>
+        <v>43939</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
@@ -4698,14 +4500,14 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="9">
-        <v>44305</v>
+        <v>43940</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="5"/>
@@ -4719,14 +4521,14 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="9">
-        <v>44306</v>
+        <v>43941</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -4740,14 +4542,14 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="9">
-        <v>44307</v>
+        <v>43942</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="5"/>
@@ -4761,14 +4563,14 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="9">
-        <v>44308</v>
+        <v>43943</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -4782,14 +4584,14 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" s="9">
-        <v>44309</v>
+        <v>43944</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="5"/>
@@ -4803,14 +4605,14 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="9">
-        <v>44310</v>
+        <v>43945</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="5"/>
@@ -4824,14 +4626,14 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" s="9">
-        <v>44311</v>
+        <v>43946</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -4845,14 +4647,14 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="9">
-        <v>44312</v>
+        <v>43947</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="5"/>
@@ -4866,14 +4668,14 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" s="9">
-        <v>44313</v>
+        <v>43948</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="5"/>
@@ -4887,14 +4689,14 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="9">
-        <v>44314</v>
+        <v>43949</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="5"/>
@@ -4908,14 +4710,14 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" s="9">
-        <v>44315</v>
+        <v>43950</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
@@ -4929,14 +4731,14 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="9">
-        <v>44316</v>
+        <v>43951</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="5"/>
@@ -4950,14 +4752,14 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" s="9">
-        <v>44317</v>
+        <v>43952</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="5"/>
@@ -4971,14 +4773,14 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="9">
-        <v>44318</v>
+        <v>43953</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="5"/>
@@ -4992,14 +4794,14 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="9">
-        <v>44319</v>
+        <v>43954</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -5013,14 +4815,14 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="9">
-        <v>44320</v>
+        <v>43955</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
@@ -5034,14 +4836,14 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" s="9">
-        <v>44321</v>
+        <v>43956</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="5"/>
@@ -5055,14 +4857,14 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" s="9">
-        <v>44322</v>
+        <v>43957</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
@@ -5076,14 +4878,14 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" s="9">
-        <v>44323</v>
+        <v>43958</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="5"/>
@@ -5097,14 +4899,14 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" s="9">
-        <v>44324</v>
+        <v>43959</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
@@ -5118,14 +4920,14 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" s="9">
-        <v>44325</v>
+        <v>43960</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
@@ -5139,14 +4941,14 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" s="9">
-        <v>44326</v>
+        <v>43961</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="5"/>
@@ -5160,14 +4962,14 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" s="9">
-        <v>44327</v>
+        <v>43962</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -5181,14 +4983,14 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" s="9">
-        <v>44328</v>
+        <v>43963</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="5"/>
@@ -5202,14 +5004,14 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" s="9">
-        <v>44329</v>
+        <v>43964</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="5"/>
@@ -5223,14 +5025,14 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" s="9">
-        <v>44330</v>
+        <v>43965</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -5244,14 +5046,14 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" s="9">
-        <v>44331</v>
+        <v>43966</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="5"/>
@@ -5265,14 +5067,14 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" s="9">
-        <v>44332</v>
+        <v>43967</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -5286,14 +5088,14 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" s="9">
-        <v>44333</v>
+        <v>43968</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
@@ -5307,14 +5109,14 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" s="9">
-        <v>44334</v>
+        <v>43969</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E189" s="7"/>
       <c r="F189" s="5"/>
@@ -5328,14 +5130,14 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" s="9">
-        <v>44335</v>
+        <v>43970</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="5"/>
@@ -5349,14 +5151,14 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" s="9">
-        <v>44336</v>
+        <v>43971</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
@@ -5370,14 +5172,14 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" s="9">
-        <v>44337</v>
+        <v>43972</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
@@ -5391,14 +5193,14 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" s="9">
-        <v>44338</v>
+        <v>43973</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="5"/>
@@ -5412,14 +5214,14 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" s="9">
-        <v>44339</v>
+        <v>43974</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
@@ -5433,14 +5235,14 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" s="9">
-        <v>44340</v>
+        <v>43975</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="5"/>
@@ -5454,14 +5256,14 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" s="9">
-        <v>44341</v>
+        <v>43976</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E196" s="7"/>
       <c r="F196" s="5"/>
@@ -5475,14 +5277,14 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" s="9">
-        <v>44342</v>
+        <v>43977</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -5496,14 +5298,14 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" s="9">
-        <v>44343</v>
+        <v>43978</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E198" s="7"/>
       <c r="F198" s="5"/>
@@ -5517,14 +5319,14 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" s="9">
-        <v>44344</v>
+        <v>43979</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
@@ -5538,14 +5340,14 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" s="9">
-        <v>44345</v>
+        <v>43980</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -5559,14 +5361,14 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" s="9">
-        <v>44346</v>
+        <v>43981</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E201" s="7"/>
       <c r="F201" s="5"/>
@@ -5580,14 +5382,14 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" s="9">
-        <v>44347</v>
+        <v>43982</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="5"/>
@@ -5601,14 +5403,14 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" s="9">
-        <v>44348</v>
+        <v>43983</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -5622,14 +5424,14 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" s="9">
-        <v>44349</v>
+        <v>43984</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="5"/>
@@ -5643,14 +5445,14 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" s="9">
-        <v>44350</v>
+        <v>43985</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="5"/>
@@ -5664,14 +5466,14 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A206" s="9">
-        <v>44351</v>
+        <v>43986</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
@@ -5685,14 +5487,14 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A207" s="9">
-        <v>44352</v>
+        <v>43987</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E207" s="7"/>
       <c r="F207" s="5"/>
@@ -5706,14 +5508,14 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A208" s="9">
-        <v>44353</v>
+        <v>43988</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -5727,14 +5529,14 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209" s="9">
-        <v>44354</v>
+        <v>43989</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="5"/>
@@ -5748,14 +5550,14 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" s="9">
-        <v>44355</v>
+        <v>43990</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E210" s="7"/>
       <c r="F210" s="5"/>
@@ -5769,14 +5571,14 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211" s="9">
-        <v>44356</v>
+        <v>43991</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="5"/>
@@ -5790,14 +5592,14 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212" s="9">
-        <v>44357</v>
+        <v>43992</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E212" s="7"/>
       <c r="F212" s="5"/>
@@ -5811,14 +5613,14 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213" s="9">
-        <v>44358</v>
+        <v>43993</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
@@ -5832,14 +5634,14 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214" s="9">
-        <v>44359</v>
+        <v>43994</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="5"/>
@@ -5853,14 +5655,14 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" s="9">
-        <v>44360</v>
+        <v>43995</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="5"/>
@@ -5874,14 +5676,14 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" s="9">
-        <v>44361</v>
+        <v>43996</v>
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -5895,14 +5697,14 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" s="9">
-        <v>44362</v>
+        <v>43997</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="5"/>
@@ -5916,14 +5718,14 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" s="9">
-        <v>44363</v>
+        <v>43998</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="5"/>
@@ -5937,14 +5739,14 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" s="9">
-        <v>44364</v>
+        <v>43999</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -5958,14 +5760,14 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" s="9">
-        <v>44365</v>
+        <v>44000</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -5979,14 +5781,14 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" s="9">
-        <v>44366</v>
+        <v>44001</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="5"/>
@@ -6000,14 +5802,14 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222" s="9">
-        <v>44367</v>
+        <v>44002</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E222" s="7"/>
       <c r="F222" s="5"/>
@@ -6021,14 +5823,14 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A223" s="9">
-        <v>44368</v>
+        <v>44003</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -6042,14 +5844,14 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A224" s="9">
-        <v>44369</v>
+        <v>44004</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="5"/>
@@ -6063,14 +5865,14 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A225" s="9">
-        <v>44370</v>
+        <v>44005</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E225" s="7"/>
       <c r="F225" s="5"/>
@@ -6084,14 +5886,14 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A226" s="9">
-        <v>44371</v>
+        <v>44006</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E226" s="7"/>
       <c r="F226" s="5"/>
@@ -6105,14 +5907,14 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A227" s="9">
-        <v>44372</v>
+        <v>44007</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="5"/>
@@ -6126,14 +5928,14 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A228" s="9">
-        <v>44373</v>
+        <v>44008</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -6147,14 +5949,14 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A229" s="9">
-        <v>44374</v>
+        <v>44009</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -6168,14 +5970,14 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A230" s="9">
-        <v>44375</v>
+        <v>44010</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E230" s="7"/>
       <c r="F230" s="5"/>
@@ -6189,14 +5991,14 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A231" s="9">
-        <v>44376</v>
+        <v>44011</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="5"/>
@@ -6210,14 +6012,14 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A232" s="9">
-        <v>44377</v>
+        <v>44012</v>
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
@@ -6231,14 +6033,14 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A233" s="9">
-        <v>44378</v>
+        <v>44013</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="5"/>
@@ -6252,14 +6054,14 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A234" s="9">
-        <v>44379</v>
+        <v>44014</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="5"/>
@@ -6273,14 +6075,14 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A235" s="9">
-        <v>44380</v>
+        <v>44015</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
@@ -6294,14 +6096,14 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A236" s="9">
-        <v>44381</v>
+        <v>44016</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E236" s="7"/>
       <c r="F236" s="5"/>
@@ -6315,14 +6117,14 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A237" s="9">
-        <v>44382</v>
+        <v>44017</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="5"/>
@@ -6336,14 +6138,14 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A238" s="9">
-        <v>44383</v>
+        <v>44018</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="5"/>
@@ -6357,14 +6159,14 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A239" s="9">
-        <v>44384</v>
+        <v>44019</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
@@ -6378,14 +6180,14 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A240" s="9">
-        <v>44385</v>
+        <v>44020</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="5"/>
@@ -6399,14 +6201,14 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241" s="9">
-        <v>44386</v>
+        <v>44021</v>
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -6420,14 +6222,14 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242" s="9">
-        <v>44387</v>
+        <v>44022</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E242" s="7"/>
       <c r="F242" s="5"/>
@@ -6441,14 +6243,14 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243" s="9">
-        <v>44388</v>
+        <v>44023</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E243" s="6"/>
       <c r="F243" s="5"/>
@@ -6462,14 +6264,14 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244" s="9">
-        <v>44389</v>
+        <v>44024</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
@@ -6483,14 +6285,14 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245" s="9">
-        <v>44390</v>
+        <v>44025</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E245" s="7"/>
       <c r="F245" s="5"/>
@@ -6504,14 +6306,14 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246" s="9">
-        <v>44391</v>
+        <v>44026</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E246" s="6"/>
       <c r="F246" s="5"/>
@@ -6525,14 +6327,14 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247" s="9">
-        <v>44392</v>
+        <v>44027</v>
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -6546,14 +6348,14 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248" s="9">
-        <v>44393</v>
+        <v>44028</v>
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E248" s="7"/>
       <c r="F248" s="5"/>
@@ -6567,14 +6369,14 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249" s="9">
-        <v>44394</v>
+        <v>44029</v>
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E249" s="6"/>
       <c r="F249" s="5"/>
@@ -6588,14 +6390,14 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250" s="9">
-        <v>44395</v>
+        <v>44030</v>
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E250" s="6"/>
       <c r="F250" s="5"/>
@@ -6609,14 +6411,14 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251" s="9">
-        <v>44396</v>
+        <v>44031</v>
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -6630,14 +6432,14 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252" s="9">
-        <v>44397</v>
+        <v>44032</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E252" s="7"/>
       <c r="F252" s="5"/>
@@ -6651,14 +6453,14 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253" s="9">
-        <v>44398</v>
+        <v>44033</v>
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -6672,14 +6474,14 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254" s="9">
-        <v>44399</v>
+        <v>44034</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E254" s="7"/>
       <c r="F254" s="5"/>
@@ -6693,14 +6495,14 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255" s="9">
-        <v>44400</v>
+        <v>44035</v>
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E255" s="6"/>
       <c r="F255" s="5"/>
@@ -6714,14 +6516,14 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256" s="9">
-        <v>44401</v>
+        <v>44036</v>
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E256" s="7"/>
       <c r="F256" s="5"/>
@@ -6735,14 +6537,14 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A257" s="9">
-        <v>44402</v>
+        <v>44037</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -6756,14 +6558,14 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A258" s="9">
-        <v>44403</v>
+        <v>44038</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E258" s="6"/>
       <c r="F258" s="5"/>
@@ -6777,14 +6579,14 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A259" s="9">
-        <v>44404</v>
+        <v>44039</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
@@ -6798,14 +6600,14 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A260" s="9">
-        <v>44405</v>
+        <v>44040</v>
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E260" s="6"/>
       <c r="F260" s="5"/>
@@ -6819,14 +6621,14 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A261" s="9">
-        <v>44406</v>
+        <v>44041</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E261" s="7"/>
       <c r="F261" s="5"/>
@@ -6840,13 +6642,13 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A262" s="9">
-        <v>44407</v>
+        <v>44042</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I262">
         <v>5.7446161741427204</v>
@@ -6854,13 +6656,13 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A263" s="9">
-        <v>44408</v>
+        <v>44043</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I263">
         <v>5.7461164259038924</v>
@@ -6868,13 +6670,13 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A264" s="9">
-        <v>44409</v>
+        <v>44044</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I264">
         <v>5.7476170694644679</v>
@@ -6882,13 +6684,13 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A265" s="9">
-        <v>44410</v>
+        <v>44045</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I265">
         <v>5.7491181049299476</v>
@@ -6896,13 +6698,13 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A266" s="9">
-        <v>44411</v>
+        <v>44046</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I266">
         <v>5.7506195324058353</v>
@@ -6910,13 +6712,13 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A267" s="9">
-        <v>44412</v>
+        <v>44047</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I267">
         <v>5.752121351986716</v>
@@ -6924,13 +6726,13 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A268" s="9">
-        <v>44413</v>
+        <v>44048</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I268">
         <v>5.7536235637817299</v>
@@ -6938,13 +6740,13 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A269" s="9">
-        <v>44414</v>
+        <v>44049</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I269">
         <v>5.7551261678927403</v>
@@ -6952,13 +6754,13 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A270" s="9">
-        <v>44415</v>
+        <v>44050</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I270">
         <v>5.7566291644179728</v>
@@ -6966,13 +6768,13 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A271" s="9">
-        <v>44416</v>
+        <v>44051</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I271">
         <v>5.7581325534665666</v>
@@ -6980,13 +6782,13 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A272" s="9">
-        <v>44417</v>
+        <v>44052</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I272">
         <v>5.7596363351331092</v>
@@ -6994,13 +6796,13 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273" s="9">
-        <v>44418</v>
+        <v>44053</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I273">
         <v>5.7611405095231021</v>
@@ -7008,13 +6810,13 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A274" s="9">
-        <v>44419</v>
+        <v>44054</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I274">
         <v>5.7626450767456836</v>
@@ -7022,13 +6824,13 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="9">
-        <v>44420</v>
+        <v>44055</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I275">
         <v>5.7641500368918059</v>
@@ -7036,13 +6838,13 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" s="9">
-        <v>44421</v>
+        <v>44056</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I276">
         <v>5.7656553900742438</v>
@@ -7050,13 +6852,13 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277" s="9">
-        <v>44422</v>
+        <v>44057</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I277">
         <v>5.7671611363912234</v>
@@ -7064,13 +6866,13 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="9">
-        <v>44423</v>
+        <v>44058</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I278">
         <v>5.7686672759446083</v>
@@ -7078,13 +6880,13 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" s="9">
-        <v>44424</v>
+        <v>44059</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I279">
         <v>5.7701738088362617</v>
@@ -7092,13 +6894,13 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280" s="9">
-        <v>44425</v>
+        <v>44060</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I280">
         <v>5.7716807351716852</v>
@@ -7106,13 +6908,13 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281" s="9">
-        <v>44426</v>
+        <v>44061</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I281">
         <v>5.7731880550563801</v>
@@ -7120,13 +6922,13 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282" s="9">
-        <v>44427</v>
+        <v>44062</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I282">
         <v>5.7746957685849338</v>
@@ -7134,13 +6936,13 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A283" s="9">
-        <v>44428</v>
+        <v>44063</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I283">
         <v>5.7762038758664858</v>
@@ -7148,13 +6950,13 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284" s="9">
-        <v>44429</v>
+        <v>44064</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I284">
         <v>5.7777123770028993</v>
@@ -7162,13 +6964,13 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285" s="9">
-        <v>44430</v>
+        <v>44065</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I285">
         <v>5.7792212720960379</v>
@@ -7176,13 +6978,13 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A286" s="9">
-        <v>44431</v>
+        <v>44066</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I286">
         <v>5.7807305612477649</v>
@@ -7190,13 +6992,13 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A287" s="9">
-        <v>44432</v>
+        <v>44067</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I287">
         <v>5.7822402445635817</v>
@@ -7204,13 +7006,13 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A288" s="9">
-        <v>44433</v>
+        <v>44068</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I288">
         <v>5.7837503221453517</v>
@@ -7218,13 +7020,13 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A289" s="9">
-        <v>44434</v>
+        <v>44069</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I289">
         <v>5.7852607940949383</v>
@@ -7232,13 +7034,13 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A290" s="9">
-        <v>44435</v>
+        <v>44070</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I290">
         <v>5.786771660517843</v>
@@ -7246,13 +7048,13 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A291" s="9">
-        <v>44436</v>
+        <v>44071</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I291">
         <v>5.7882829215122911</v>
@@ -7260,13 +7062,13 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A292" s="9">
-        <v>44437</v>
+        <v>44072</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I292">
         <v>5.789794577187422</v>
@@ -7274,13 +7076,13 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A293" s="9">
-        <v>44438</v>
+        <v>44073</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I293">
         <v>5.7913066276414611</v>
@@ -7288,13 +7090,13 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A294" s="9">
-        <v>44439</v>
+        <v>44074</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I294">
         <v>5.7928190729799098</v>
@@ -7302,13 +7104,13 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A295" s="9">
-        <v>44440</v>
+        <v>44075</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I295">
         <v>5.7943319133046316</v>
@@ -7316,13 +7118,13 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A296" s="9">
-        <v>44441</v>
+        <v>44076</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I296">
         <v>5.7958451487211278</v>
@@ -7330,13 +7132,13 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A297" s="9">
-        <v>44442</v>
+        <v>44077</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I297">
         <v>5.7973587793312618</v>
@@ -7344,13 +7146,13 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A298" s="9">
-        <v>44443</v>
+        <v>44078</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I298">
         <v>5.798872805236897</v>
@@ -7358,13 +7160,13 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A299" s="9">
-        <v>44444</v>
+        <v>44079</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I299">
         <v>5.8003872265398968</v>
@@ -7372,13 +7174,13 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A300" s="9">
-        <v>44445</v>
+        <v>44080</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I300">
         <v>5.8019020433494006</v>
@@ -7386,13 +7188,13 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A301" s="9">
-        <v>44446</v>
+        <v>44081</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I301">
         <v>5.8034172557636339</v>
@@ -7400,13 +7202,13 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A302" s="9">
-        <v>44447</v>
+        <v>44082</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I302">
         <v>5.8049328638880979</v>
@@ -7414,13 +7216,13 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A303" s="9">
-        <v>44448</v>
+        <v>44083</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I303">
         <v>5.8064488678282942</v>
@@ -7428,13 +7230,13 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A304" s="9">
-        <v>44449</v>
+        <v>44084</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D304" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I304">
         <v>5.807965267682448</v>
@@ -7442,13 +7244,13 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="9">
-        <v>44450</v>
+        <v>44085</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I305">
         <v>5.8094820635560609</v>
@@ -7456,13 +7258,13 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="9">
-        <v>44451</v>
+        <v>44086</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D306" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I306">
         <v>5.8109992555509962</v>
@@ -7470,13 +7272,13 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="9">
-        <v>44452</v>
+        <v>44087</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D307" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I307">
         <v>5.8125168437727552</v>
@@ -7484,13 +7286,13 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="9">
-        <v>44453</v>
+        <v>44088</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D308" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I308">
         <v>5.8140348283268386</v>
@@ -7498,13 +7300,13 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="9">
-        <v>44454</v>
+        <v>44089</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I309">
         <v>5.8155532093151123</v>
@@ -7512,13 +7314,13 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="9">
-        <v>44455</v>
+        <v>44090</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I310">
         <v>5.8170719868394372</v>
@@ -7526,13 +7328,13 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="9">
-        <v>44456</v>
+        <v>44091</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I311">
         <v>5.8185911610053154</v>
@@ -7540,13 +7342,13 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="9">
-        <v>44457</v>
+        <v>44092</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D312" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I312">
         <v>5.8201107319146104</v>
@@ -7554,13 +7356,13 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="9">
-        <v>44458</v>
+        <v>44093</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D313" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I313">
         <v>5.8216306996691856</v>
@@ -7568,13 +7370,13 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="9">
-        <v>44459</v>
+        <v>44094</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D314" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I314">
         <v>5.8231510643781803</v>
@@ -7582,13 +7384,13 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="9">
-        <v>44460</v>
+        <v>44095</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D315" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I315">
         <v>5.824671826143458</v>
@@ -7596,13 +7398,13 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="9">
-        <v>44461</v>
+        <v>44096</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D316" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I316">
         <v>5.8261929850668821</v>
@@ -7610,13 +7412,13 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="9">
-        <v>44462</v>
+        <v>44097</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I317">
         <v>5.8277145412539539</v>
@@ -7624,13 +7426,13 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="9">
-        <v>44463</v>
+        <v>44098</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D318" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I318">
         <v>5.829236494802899</v>
@@ -7638,13 +7440,13 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="9">
-        <v>44464</v>
+        <v>44099</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I319">
         <v>5.8307588458264954</v>
@@ -7652,13 +7454,13 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="9">
-        <v>44465</v>
+        <v>44100</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I320">
         <v>5.832281594422966</v>
@@ -7666,13 +7468,13 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="9">
-        <v>44466</v>
+        <v>44101</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D321" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I321">
         <v>5.8338047406978149</v>
@@ -7680,13 +7482,13 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="9">
-        <v>44467</v>
+        <v>44102</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D322" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I322">
         <v>5.8353282847529044</v>
@@ -7694,13 +7496,13 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="9">
-        <v>44468</v>
+        <v>44103</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I323">
         <v>5.8368522266937362</v>
@@ -7708,13 +7510,13 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="9">
-        <v>44469</v>
+        <v>44104</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I324">
         <v>5.8383765666221734</v>
@@ -7722,13 +7524,13 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="9">
-        <v>44470</v>
+        <v>44105</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D325" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I325">
         <v>5.8399013046473556</v>
@@ -7736,13 +7538,13 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="9">
-        <v>44471</v>
+        <v>44106</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I326">
         <v>5.8414264408675081</v>
@@ -7750,13 +7552,13 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="9">
-        <v>44472</v>
+        <v>44107</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D327" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I327">
         <v>5.8429519753917702</v>
@@ -7764,13 +7566,13 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="9">
-        <v>44473</v>
+        <v>44108</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D328" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I328">
         <v>5.8444779083183684</v>
@@ -7778,13 +7580,13 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="9">
-        <v>44474</v>
+        <v>44109</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D329" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I329">
         <v>5.8460042397564393</v>
@@ -7792,13 +7594,13 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="9">
-        <v>44475</v>
+        <v>44110</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D330" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I330">
         <v>5.847530969807849</v>
@@ -7806,13 +7608,13 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="9">
-        <v>44476</v>
+        <v>44111</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D331" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I331">
         <v>5.84905809857446</v>
@@ -7820,13 +7622,13 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="9">
-        <v>44477</v>
+        <v>44112</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D332" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I332">
         <v>5.8505856261654117</v>
@@ -7834,13 +7636,13 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="9">
-        <v>44478</v>
+        <v>44113</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D333" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I333">
         <v>5.8521135526789294</v>
@@ -7848,13 +7650,13 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="9">
-        <v>44479</v>
+        <v>44114</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D334" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I334">
         <v>5.8536418782277906</v>
@@ -7862,13 +7664,13 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="9">
-        <v>44480</v>
+        <v>44115</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D335" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I335">
         <v>5.8551706029065826</v>
@@ -7876,13 +7678,13 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="9">
-        <v>44481</v>
+        <v>44116</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D336" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I336">
         <v>5.856699726824445</v>
@@ -7890,13 +7692,13 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="9">
-        <v>44482</v>
+        <v>44117</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D337" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I337">
         <v>5.8582292500868789</v>
@@ -7904,13 +7706,13 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A338" s="9">
-        <v>44483</v>
+        <v>44118</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D338" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I338">
         <v>5.8597591727957479</v>
@@ -7918,13 +7720,13 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A339" s="9">
-        <v>44484</v>
+        <v>44119</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I339">
         <v>5.8612894950565533</v>
@@ -7932,13 +7734,13 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A340" s="9">
-        <v>44485</v>
+        <v>44120</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D340" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I340">
         <v>5.8628202169711594</v>
@@ -7946,13 +7748,13 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A341" s="9">
-        <v>44486</v>
+        <v>44121</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I341">
         <v>5.864351338645065</v>
@@ -7960,13 +7762,13 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A342" s="9">
-        <v>44487</v>
+        <v>44122</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D342" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I342">
         <v>5.865882860187412</v>
@@ -7974,13 +7776,13 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A343" s="9">
-        <v>44488</v>
+        <v>44123</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I343">
         <v>5.8674147816964251</v>
@@ -7988,13 +7790,13 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A344" s="9">
-        <v>44489</v>
+        <v>44124</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D344" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I344">
         <v>5.8689471032776046</v>
@@ -8002,13 +7804,13 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A345" s="9">
-        <v>44490</v>
+        <v>44125</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D345" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I345">
         <v>5.8704798250364547</v>
@@ -8016,13 +7818,13 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A346" s="9">
-        <v>44491</v>
+        <v>44126</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D346" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I346">
         <v>5.8720129470821121</v>
@@ -8030,13 +7832,13 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A347" s="9">
-        <v>44492</v>
+        <v>44127</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D347" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I347">
         <v>5.873546469509165</v>
@@ -8044,13 +7846,13 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A348" s="9">
-        <v>44493</v>
+        <v>44128</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D348" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I348">
         <v>5.8750803924303909</v>
@@ -8058,13 +7860,13 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A349" s="9">
-        <v>44494</v>
+        <v>44129</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D349" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I349">
         <v>5.8766147159476532</v>
@@ -8072,13 +7874,13 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A350" s="9">
-        <v>44495</v>
+        <v>44130</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D350" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I350">
         <v>5.8781494401664531</v>
@@ -8086,13 +7888,13 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A351" s="9">
-        <v>44496</v>
+        <v>44131</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D351" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I351">
         <v>5.8796845651886542</v>
@@ -8100,13 +7902,13 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A352" s="9">
-        <v>44497</v>
+        <v>44132</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D352" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I352">
         <v>5.8812200911233958</v>
@@ -8114,13 +7916,13 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A353" s="9">
-        <v>44498</v>
+        <v>44133</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D353" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I353">
         <v>5.8827560180689034</v>
@@ -8128,13 +7930,13 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A354" s="9">
-        <v>44499</v>
+        <v>44134</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I354">
         <v>5.8842923461379542</v>
@@ -8142,13 +7944,13 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A355" s="9">
-        <v>44500</v>
+        <v>44135</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I355">
         <v>5.8858290754287736</v>
@@ -8156,13 +7958,13 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A356" s="9">
-        <v>44501</v>
+        <v>44136</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D356" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I356">
         <v>3.218100363600485E-3</v>
@@ -8170,13 +7972,13 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A357" s="9">
-        <v>44502</v>
+        <v>44137</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I357">
         <v>3.2197814475978248E-3</v>
@@ -8184,13 +7986,13 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A358" s="9">
-        <v>44503</v>
+        <v>44138</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I358">
         <v>3.220622318883315E-3</v>
@@ -8198,13 +8000,13 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A359" s="9">
-        <v>44504</v>
+        <v>44139</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D359" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I359">
         <v>3.2214634097673671E-3</v>
@@ -8212,13 +8014,13 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A360" s="9">
-        <v>44505</v>
+        <v>44140</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I360">
         <v>3.2223047203086001E-3</v>
@@ -8226,13 +8028,13 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A361" s="9">
-        <v>44506</v>
+        <v>44141</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I361">
         <v>3.2231462505656339E-3</v>
@@ -8240,13 +8042,13 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A362" s="9">
-        <v>44507</v>
+        <v>44142</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I362">
         <v>3.223988000595313E-3</v>
@@ -8254,13 +8056,13 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A363" s="9">
-        <v>44508</v>
+        <v>44143</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I363">
         <v>3.2248299704527028E-3</v>
@@ -8268,13 +8070,13 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A364" s="9">
-        <v>44509</v>
+        <v>44144</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I364">
         <v>3.2256721601999772E-3</v>
@@ -8282,13 +8084,13 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A365" s="9">
-        <v>44510</v>
+        <v>44145</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I365">
         <v>3.2265145698886499E-3</v>
@@ -8296,13 +8098,13 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A366" s="9">
-        <v>44511</v>
+        <v>44146</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D366" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I366">
         <v>3.2273571995808941E-3</v>
@@ -8310,13 +8112,13 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A367" s="9">
-        <v>44512</v>
+        <v>44147</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D367" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I367">
         <v>3.2282000493335521E-3</v>
@@ -8324,13 +8126,13 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A368" s="9">
-        <v>44513</v>
+        <v>44148</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I368">
         <v>3.2290431192016911E-3</v>
@@ -8338,13 +8140,13 @@
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A369" s="9">
-        <v>44514</v>
+        <v>44149</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I369">
         <v>3.2298864092439321E-3</v>
@@ -8352,13 +8154,13 @@
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A370" s="9">
-        <v>44515</v>
+        <v>44150</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I370">
         <v>3.2307299195188932E-3</v>
@@ -8366,13 +8168,13 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A371" s="9">
-        <v>44516</v>
+        <v>44151</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I371">
         <v>3.2315736500834191E-3</v>
@@ -8380,13 +8182,13 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A372" s="9">
-        <v>44517</v>
+        <v>44152</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D372" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I372">
         <v>3.2324176009943528E-3</v>
@@ -8394,13 +8196,13 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A373" s="9">
-        <v>44518</v>
+        <v>44153</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D373" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I373">
         <v>3.2332617723085382E-3</v>
@@ -8408,13 +8210,13 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A374" s="9">
-        <v>44519</v>
+        <v>44154</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D374" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I374">
         <v>3.23410616408637E-3</v>
@@ -8422,13 +8224,13 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A375" s="9">
-        <v>44520</v>
+        <v>44155</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D375" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I375">
         <v>3.234950776382917E-3</v>
@@ -8436,13 +8238,13 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A376" s="9">
-        <v>44521</v>
+        <v>44156</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D376" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I376">
         <v>3.235795609256797E-3</v>
@@ -8450,13 +8252,13 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A377" s="9">
-        <v>44522</v>
+        <v>44157</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D377" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I377">
         <v>3.2366406627648558E-3</v>
@@ -8464,13 +8266,13 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A378" s="9">
-        <v>44523</v>
+        <v>44158</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I378">
         <v>3.237485936967488E-3</v>
@@ -8478,13 +8280,13 @@
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A379" s="9">
-        <v>44524</v>
+        <v>44159</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I379">
         <v>3.238331431917985E-3</v>
@@ -8492,13 +8294,13 @@
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A380" s="9">
-        <v>44525</v>
+        <v>44160</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D380" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I380">
         <v>3.2391771476767421E-3</v>
@@ -8506,13 +8308,13 @@
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A381" s="9">
-        <v>44526</v>
+        <v>44161</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D381" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I381">
         <v>3.2400230843006028E-3</v>
@@ -8520,13 +8322,13 @@
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A382" s="9">
-        <v>44527</v>
+        <v>44162</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D382" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I382">
         <v>3.2408692418481881E-3</v>
@@ -8534,13 +8336,13 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A383" s="9">
-        <v>44528</v>
+        <v>44163</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D383" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I383">
         <v>3.2417156203763402E-3</v>
@@ -8548,13 +8350,13 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A384" s="9">
-        <v>44529</v>
+        <v>44164</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D384" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I384">
         <v>3.242562219941902E-3</v>
@@ -8562,13 +8364,13 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A385" s="9">
-        <v>44530</v>
+        <v>44165</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D385" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I385">
         <v>3.243409040603495E-3</v>
@@ -8576,13 +8378,13 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A386" s="9">
-        <v>44531</v>
+        <v>44166</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D386" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I386">
         <v>3.2442560824197391E-3</v>
@@ -8590,13 +8392,13 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A387" s="9">
-        <v>44532</v>
+        <v>44167</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D387" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I387">
         <v>3.2451033454492522E-3</v>
@@ -8604,13 +8406,13 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A388" s="9">
-        <v>44533</v>
+        <v>44168</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D388" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I388">
         <v>3.245950829745325E-3</v>
@@ -8618,13 +8420,13 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A389" s="9">
-        <v>44534</v>
+        <v>44169</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D389" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I389">
         <v>3.2467985353701319E-3</v>
@@ -8632,13 +8434,13 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A390" s="9">
-        <v>44535</v>
+        <v>44170</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D390" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I390">
         <v>3.2476464623805161E-3</v>
@@ -8646,13 +8448,13 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A391" s="9">
-        <v>44536</v>
+        <v>44171</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D391" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I391">
         <v>3.2484946108315431E-3</v>
@@ -8660,13 +8462,13 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A392" s="9">
-        <v>44537</v>
+        <v>44172</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D392" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I392">
         <v>3.2493429807853862E-3</v>
@@ -8674,13 +8476,13 @@
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A393" s="9">
-        <v>44538</v>
+        <v>44173</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D393" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I393">
         <v>3.250191572297112E-3</v>
@@ -8688,13 +8490,13 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A394" s="9">
-        <v>44539</v>
+        <v>44174</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D394" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I394">
         <v>3.2510403854235652E-3</v>
@@ -8702,13 +8504,13 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A395" s="9">
-        <v>44540</v>
+        <v>44175</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I395">
         <v>3.2518894202269171E-3</v>
@@ -8716,13 +8518,13 @@
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A396" s="9">
-        <v>44541</v>
+        <v>44176</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D396" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I396">
         <v>3.2527386767604578E-3</v>
@@ -8730,13 +8532,13 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A397" s="9">
-        <v>44542</v>
+        <v>44177</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D397" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I397">
         <v>3.2535881550845862E-3</v>
@@ -8744,13 +8546,13 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A398" s="9">
-        <v>44543</v>
+        <v>44178</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D398" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I398">
         <v>3.254437855256143E-3</v>
@@ -8758,13 +8560,13 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A399" s="9">
-        <v>44544</v>
+        <v>44179</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D399" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I399">
         <v>3.2552877773355249E-3</v>
@@ -8772,13 +8574,13 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A400" s="9">
-        <v>44545</v>
+        <v>44180</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D400" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I400">
         <v>3.2561379213778001E-3</v>
@@ -8786,13 +8588,13 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A401" s="9">
-        <v>44546</v>
+        <v>44181</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D401" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I401">
         <v>3.2569882874415872E-3</v>
@@ -8800,13 +8602,13 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A402" s="9">
-        <v>44547</v>
+        <v>44182</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D402" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I402">
         <v>3.25783887558373E-3</v>
@@ -8814,13 +8616,13 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A403" s="9">
-        <v>44548</v>
+        <v>44183</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D403" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I403">
         <v>3.2586896858664009E-3</v>
@@ -8828,13 +8630,13 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A404" s="9">
-        <v>44549</v>
+        <v>44184</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D404" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I404">
         <v>3.25954071834289E-3</v>
@@ -8842,13 +8644,13 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A405" s="9">
-        <v>44550</v>
+        <v>44185</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D405" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I405">
         <v>3.2603919730735949E-3</v>
@@ -8856,13 +8658,13 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A406" s="9">
-        <v>44551</v>
+        <v>44186</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D406" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I406">
         <v>3.261243450117135E-3</v>
@@ -8870,13 +8672,13 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A407" s="9">
-        <v>44552</v>
+        <v>44187</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D407" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I407">
         <v>3.262095149528577E-3</v>
@@ -8884,13 +8686,13 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A408" s="9">
-        <v>44553</v>
+        <v>44188</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D408" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I408">
         <v>3.262947071370093E-3</v>
@@ -8898,13 +8700,13 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A409" s="9">
-        <v>44554</v>
+        <v>44189</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D409" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I409">
         <v>3.2637992156967499E-3</v>
@@ -8912,13 +8714,13 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A410" s="9">
-        <v>44555</v>
+        <v>44190</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D410" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I410">
         <v>3.264651582567168E-3</v>
@@ -8926,13 +8728,13 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A411" s="9">
-        <v>44556</v>
+        <v>44191</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D411" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I411">
         <v>3.2655041720417439E-3</v>
@@ -8940,13 +8742,13 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A412" s="9">
-        <v>44557</v>
+        <v>44192</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D412" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I412">
         <v>3.2663569841755451E-3</v>
@@ -8954,13 +8756,13 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A413" s="9">
-        <v>44558</v>
+        <v>44193</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D413" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I413">
         <v>3.2672100190271891E-3</v>
@@ -8968,13 +8770,13 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A414" s="9">
-        <v>44559</v>
+        <v>44194</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D414" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I414">
         <v>3.2680632766570739E-3</v>
@@ -8982,13 +8784,13 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A415" s="9">
-        <v>44560</v>
+        <v>44195</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D415" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I415">
         <v>3.2689167571220419E-3</v>
@@ -8996,13 +8798,13 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A416" s="9">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D416" s="10" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I416">
         <v>3.2697704604789379E-3</v>
